--- a/[ML]_Project_EDAOutputs_Group33/FeatureSelection/RFE_Results_LogisticRegression_StandScaler.xlsx
+++ b/[ML]_Project_EDAOutputs_Group33/FeatureSelection/RFE_Results_LogisticRegression_StandScaler.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
